--- a/app1/tests/testsfiles/example_excel_format.xlsx
+++ b/app1/tests/testsfiles/example_excel_format.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant Ward\Desktop\UofSC School\TheBackyardigans\layoutGenerator\uploads\sample_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanfowler/Dropbox/Mac/Downloads/CSCE 490/TheBackyardigans/app1/tests/testsfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BA0842-883D-44FD-B041-333F5A3DD061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D583DB-CD66-2243-9C72-0AE90600E4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7270" xr2:uid="{2E378315-C40A-433F-A886-1EBB4187EC79}"/>
+    <workbookView xWindow="4040" yWindow="2160" windowWidth="17780" windowHeight="14220" xr2:uid="{2E378315-C40A-433F-A886-1EBB4187EC79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>Descriptor</t>
   </si>
@@ -69,6 +69,111 @@
   </si>
   <si>
     <t>WINDOW</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Sensor LW67756</t>
+  </si>
+  <si>
+    <t>rotation</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Camera A</t>
+  </si>
+  <si>
+    <t>Calibration</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>DOOR</t>
+  </si>
+  <si>
+    <t>door_length</t>
+  </si>
+  <si>
+    <t>door_angle</t>
+  </si>
+  <si>
+    <t>door_xory</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Room Navigation</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>room_nav_direction</t>
+  </si>
+  <si>
+    <t>furniture_type</t>
+  </si>
+  <si>
+    <t>rectangle</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>X Axis</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Y Axis</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2024 March 21</t>
+  </si>
+  <si>
+    <t>Room Name</t>
+  </si>
+  <si>
+    <t>Test Room</t>
+  </si>
+  <si>
+    <t>Neighborhood</t>
+  </si>
+  <si>
+    <t>Broad</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Greenway</t>
+  </si>
+  <si>
+    <t>Orientation</t>
+  </si>
+  <si>
+    <t>portrait</t>
   </si>
 </sst>
 </file>
@@ -104,8 +209,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,9 +230,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -164,7 +270,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -270,7 +376,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -412,7 +518,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,15 +526,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DECC682-D3AC-405B-A5DD-FF93AD75680E}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -447,202 +556,420 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>26</v>
-      </c>
-      <c r="D2">
-        <v>34.5</v>
-      </c>
-      <c r="E2">
-        <v>24</v>
-      </c>
-      <c r="F2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>80</v>
-      </c>
-      <c r="E3">
-        <v>24</v>
-      </c>
-      <c r="F3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7">
+        <v>-36</v>
+      </c>
+      <c r="O7">
+        <v>288</v>
+      </c>
+      <c r="P7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>180</v>
+      </c>
+      <c r="P8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>72</v>
+      </c>
+      <c r="D9">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>50</v>
-      </c>
-      <c r="D7">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="G10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D11">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>34.5</v>
+      </c>
+      <c r="E12">
+        <v>24</v>
+      </c>
+      <c r="F12">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>100</v>
       </c>
-      <c r="D12">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>100</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
+      <c r="D22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>75</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>75</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>-50</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>125</v>
+      </c>
+      <c r="D28">
+        <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>